--- a/experiences/media/bucket_list.xlsx
+++ b/experiences/media/bucket_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78D0E9-8B59-DE45-9B2C-93B79F4748E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A499D-83B2-9A4F-B6E9-407A72523B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
   <si>
     <t>Item</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -439,6 +436,21 @@
   </si>
   <si>
     <t>https://everesting.cc/</t>
+  </si>
+  <si>
+    <t>Mt Hood</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>City/State</t>
+  </si>
+  <si>
+    <t>Climb Mt Hood</t>
+  </si>
+  <si>
+    <t>April-July</t>
   </si>
 </sst>
 </file>
@@ -830,8 +842,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,816 +867,841 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G18" s="1">
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/media/bucket_list.xlsx
+++ b/experiences/media/bucket_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A499D-83B2-9A4F-B6E9-407A72523B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF075F21-D28F-A541-9DCF-E5BF7CC67255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
   <sheets>
     <sheet name="bucket_list" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
   <si>
     <t>Item</t>
   </si>
@@ -451,6 +451,15 @@
   </si>
   <si>
     <t>April-July</t>
+  </si>
+  <si>
+    <t>Forest Route 42N17</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Ride 42N17 on bike</t>
   </si>
 </sst>
 </file>
@@ -842,13 +851,13 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
@@ -1687,7 +1696,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
